--- a/Book_insert.xlsx
+++ b/Book_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273953F8-B1E9-47A4-BD86-5B93D5709B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F9D18-BFC0-49EF-B6D6-0DCEBDCB8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Book No</t>
   </si>
@@ -131,6 +131,33 @@
   </si>
   <si>
     <t>Book Copies</t>
+  </si>
+  <si>
+    <t>rdfglrsdg</t>
+  </si>
+  <si>
+    <t>hghfchtjgft</t>
+  </si>
+  <si>
+    <t>gfhjgfhgj</t>
+  </si>
+  <si>
+    <t>fhjkgfhjgf</t>
+  </si>
+  <si>
+    <t>hgfhjkgfhjgf</t>
+  </si>
+  <si>
+    <t>hgfghgjkfhg</t>
+  </si>
+  <si>
+    <t>nbhijb</t>
+  </si>
+  <si>
+    <t>hjbhj</t>
+  </si>
+  <si>
+    <t>hjbh</t>
   </si>
 </sst>
 </file>
@@ -499,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -633,6 +660,50 @@
         <v>29</v>
       </c>
       <c r="N3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
     </row>

--- a/Book_insert.xlsx
+++ b/Book_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F9D18-BFC0-49EF-B6D6-0DCEBDCB8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2295A95-20D4-4D86-B386-1AA855D7C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>

--- a/Book_insert.xlsx
+++ b/Book_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2295A95-20D4-4D86-B386-1AA855D7C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFFAF4-5C6B-477E-A7D1-D4CA9A94EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -660,13 +660,10 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>301</v>
-      </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -704,7 +701,7 @@
         <v>40</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
